--- a/bioinformatics-analysis/resources/sample-meta.xlsx
+++ b/bioinformatics-analysis/resources/sample-meta.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20182\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zwx/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA18027-B4E7-4677-B94A-EE794CBC9F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{897D461A-5C85-413C-925E-0781922FBAC9}"/>
+    <workbookView xWindow="7420" yWindow="2480" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,19 +441,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D36BD69-C589-425D-A878-DB82524D11EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,11 +479,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{BB2DA902-7519-48F8-ABD2-9BAAB5CA3DED}">
-      <formula1>"FFPE蜡块,新鲜组织,血液"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{D418374E-2BD6-45A8-8E6F-3CB670336E60}">
-      <formula1>"true,false"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"FFPE蜡块,新鲜组织,血液,脑脊液,胸水,其他体液,骨髓"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
